--- a/dados/historico/times/rodada_26/Bahia.xlsx
+++ b/dados/historico/times/rodada_26/Bahia.xlsx
@@ -712,7 +712,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>196</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -729,10 +729,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Matchweek 2</t>
-        </is>
+      <c r="E2" t="n">
+        <v>2</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -900,7 +898,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>197</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -917,10 +915,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Matchweek 4</t>
-        </is>
+      <c r="E3" t="n">
+        <v>4</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -1088,7 +1084,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>198</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1105,10 +1101,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Matchweek 6</t>
-        </is>
+      <c r="E4" t="n">
+        <v>6</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -1276,7 +1270,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>199</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1293,10 +1287,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Matchweek 7</t>
-        </is>
+      <c r="E5" t="n">
+        <v>7</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -1464,7 +1456,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>200</v>
+        <v>9</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1481,10 +1473,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Matchweek 10</t>
-        </is>
+      <c r="E6" t="n">
+        <v>10</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1652,7 +1642,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1669,10 +1659,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Matchweek 11</t>
-        </is>
+      <c r="E7" t="n">
+        <v>11</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1840,7 +1828,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1857,10 +1845,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Matchweek 13</t>
-        </is>
+      <c r="E8" t="n">
+        <v>13</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -2028,7 +2014,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -2045,10 +2031,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Matchweek 16</t>
-        </is>
+      <c r="E9" t="n">
+        <v>16</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -2216,7 +2200,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>204</v>
+        <v>17</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -2233,10 +2217,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Matchweek 18</t>
-        </is>
+      <c r="E10" t="n">
+        <v>18</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -2404,7 +2386,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>205</v>
+        <v>19</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -2421,10 +2403,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Matchweek 20</t>
-        </is>
+      <c r="E11" t="n">
+        <v>20</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -2590,7 +2570,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>206</v>
+        <v>21</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -2607,10 +2587,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Matchweek 22</t>
-        </is>
+      <c r="E12" t="n">
+        <v>22</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -2776,7 +2754,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>207</v>
+        <v>23</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -2793,10 +2771,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Matchweek 24</t>
-        </is>
+      <c r="E13" t="n">
+        <v>24</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -2962,7 +2938,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -2979,10 +2955,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Matchweek 21</t>
-        </is>
+      <c r="E14" t="n">
+        <v>21</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -3148,7 +3122,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -3165,10 +3139,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Matchweek 1</t>
-        </is>
+      <c r="E15" t="n">
+        <v>1</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -3336,7 +3308,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -3353,10 +3325,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Matchweek 25</t>
-        </is>
+      <c r="E16" t="n">
+        <v>25</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -3522,7 +3492,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -3539,10 +3509,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Matchweek 9</t>
-        </is>
+      <c r="E17" t="n">
+        <v>9</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -3710,7 +3678,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -3727,10 +3695,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Matchweek 12</t>
-        </is>
+      <c r="E18" t="n">
+        <v>12</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -3898,7 +3864,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -3915,10 +3881,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Matchweek 15</t>
-        </is>
+      <c r="E19" t="n">
+        <v>15</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -4086,7 +4050,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -4103,10 +4067,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Matchweek 19</t>
-        </is>
+      <c r="E20" t="n">
+        <v>19</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -4272,7 +4234,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -4289,10 +4251,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Matchweek 17</t>
-        </is>
+      <c r="E21" t="n">
+        <v>17</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -4458,7 +4418,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -4475,10 +4435,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Matchweek 14</t>
-        </is>
+      <c r="E22" t="n">
+        <v>14</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -4644,7 +4602,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -4661,10 +4619,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Matchweek 8</t>
-        </is>
+      <c r="E23" t="n">
+        <v>8</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -4832,7 +4788,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -4849,10 +4805,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Matchweek 5</t>
-        </is>
+      <c r="E24" t="n">
+        <v>5</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -5020,7 +4974,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>209</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -5037,10 +4991,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Matchweek 3</t>
-        </is>
+      <c r="E25" t="n">
+        <v>3</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -5208,7 +5160,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>233</v>
+        <v>33</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -5225,10 +5177,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Matchweek 26</t>
-        </is>
+      <c r="E26" t="n">
+        <v>26</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -5396,7 +5346,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>244</v>
+        <v>21</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -5413,10 +5363,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Matchweek 23</t>
-        </is>
+      <c r="E27" t="n">
+        <v>23</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>

--- a/dados/historico/times/rodada_26/Bahia.xlsx
+++ b/dados/historico/times/rodada_26/Bahia.xlsx
@@ -712,7 +712,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>391</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3</v>
+        <v>393</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>5</v>
+        <v>395</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>6</v>
+        <v>396</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>9</v>
+        <v>399</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>12</v>
+        <v>402</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>15</v>
+        <v>405</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>17</v>
+        <v>407</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>19</v>
+        <v>409</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>21</v>
+        <v>411</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>23</v>
+        <v>413</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>30</v>
+        <v>226</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>13</v>
+        <v>273</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>11</v>
+        <v>293</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>7</v>
+        <v>368</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>2</v>
+        <v>418</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>33</v>
+        <v>467</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>21</v>
+        <v>489</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
